--- a/Team-Data/2013-14/1-5-2013-14.xlsx
+++ b/Team-Data/2013-14/1-5-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -759,31 +826,31 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -804,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -819,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.382</v>
+        <v>0.394</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
@@ -866,40 +933,40 @@
         <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K3" t="n">
         <v>0.446</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>42</v>
+      </c>
+      <c r="U3" t="n">
         <v>18.9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="O3" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="U3" t="n">
-        <v>19.1</v>
       </c>
       <c r="V3" t="n">
         <v>16</v>
@@ -914,7 +981,7 @@
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>18.6</v>
@@ -923,16 +990,16 @@
         <v>94.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>22</v>
@@ -941,7 +1008,7 @@
         <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -950,22 +1017,22 @@
         <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -980,7 +1047,7 @@
         <v>29</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
@@ -989,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-5</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1147,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1365,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1493,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1505,16 +1572,16 @@
         <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>13</v>
@@ -1523,7 +1590,7 @@
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>27</v>
@@ -1538,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>8</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
         <v>49.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="J7" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
@@ -1606,7 +1673,7 @@
         <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
         <v>16.1</v>
@@ -1615,118 +1682,118 @@
         <v>21.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S7" t="n">
         <v>32.2</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U7" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V7" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="AC7" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW7" t="n">
         <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
       </c>
       <c r="BB7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="H8" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>39.2</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.376</v>
       </c>
       <c r="O8" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P8" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.803</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
         <v>18.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.9</v>
+        <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1851,10 +1918,10 @@
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1866,10 +1933,10 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>28</v>
@@ -1881,22 +1948,22 @@
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
       </c>
       <c r="AU8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV8" t="n">
         <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>7</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1908,10 +1975,10 @@
         <v>29</v>
       </c>
       <c r="BB8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -1940,112 +2007,112 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.485</v>
+        <v>0.469</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>84.7</v>
+        <v>84.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.446</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="M9" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O9" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P9" t="n">
         <v>25.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R9" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.8</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V9" t="n">
         <v>15.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y9" t="n">
         <v>5.9</v>
       </c>
-      <c r="Y9" t="n">
-        <v>5.8</v>
-      </c>
       <c r="Z9" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA9" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AD9" t="n">
         <v>21</v>
       </c>
-      <c r="AB9" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16</v>
-      </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM9" t="n">
         <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>13</v>
       </c>
       <c r="AN9" t="n">
         <v>19</v>
@@ -2063,13 +2130,13 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
@@ -2087,13 +2154,13 @@
         <v>24</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J10" t="n">
         <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M10" t="n">
         <v>19.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.318</v>
+        <v>0.321</v>
       </c>
       <c r="O10" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P10" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.661</v>
+        <v>0.665</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
         <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U10" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2191,19 +2258,19 @@
         <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3</v>
+        <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
@@ -2212,13 +2279,13 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -2233,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2245,37 +2312,37 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -2304,31 +2371,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.639</v>
+        <v>0.629</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J11" t="n">
         <v>84.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
         <v>24.1</v>
@@ -2337,73 +2404,73 @@
         <v>0.392</v>
       </c>
       <c r="O11" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
         <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="T11" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U11" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V11" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W11" t="n">
         <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
         <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2415,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2430,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
@@ -2442,22 +2509,22 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -2564,22 +2631,22 @@
         <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2624,7 +2691,7 @@
         <v>19</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.459</v>
       </c>
       <c r="L13" t="n">
         <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O13" t="n">
         <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T13" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
         <v>15.7</v>
@@ -2728,25 +2795,25 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z13" t="n">
         <v>19.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,22 +2825,22 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2803,13 +2870,13 @@
         <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2949,7 +3016,7 @@
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2988,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3003,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.412</v>
+        <v>0.424</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="O15" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="P15" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="R15" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
@@ -3092,28 +3159,28 @@
         <v>6.6</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.5</v>
+        <v>-3.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
@@ -3134,7 +3201,7 @@
         <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
@@ -3143,10 +3210,10 @@
         <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3155,16 +3222,16 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,19 +3240,19 @@
         <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.455</v>
+        <v>0.438</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J16" t="n">
-        <v>82.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
         <v>16</v>
@@ -3253,25 +3320,25 @@
         <v>21.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R16" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V16" t="n">
         <v>13.8</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
         <v>4</v>
@@ -3280,37 +3347,37 @@
         <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA16" t="n">
         <v>19.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.7</v>
+        <v>95.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.3</v>
+        <v>-2.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3331,25 +3398,25 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR16" t="n">
         <v>6</v>
       </c>
       <c r="AS16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT16" t="n">
         <v>21</v>
       </c>
-      <c r="AT16" t="n">
-        <v>13</v>
-      </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
@@ -3364,10 +3431,10 @@
         <v>22</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,79 +3481,79 @@
         <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.511</v>
+        <v>0.512</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="n">
         <v>24.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="U17" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA17" t="n">
         <v>21.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3498,16 +3565,16 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3534,16 +3601,16 @@
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3710,7 +3777,7 @@
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
@@ -3886,13 +3953,13 @@
         <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4044,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
@@ -4056,16 +4123,16 @@
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
         <v>12</v>
@@ -4083,13 +4150,13 @@
         <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.333</v>
+        <v>0.313</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,85 +4209,85 @@
         <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L21" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="T21" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="W21" t="n">
         <v>8.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.7</v>
+        <v>-4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
         <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4238,10 +4305,10 @@
         <v>30</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,22 +4329,22 @@
         <v>10</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.794</v>
+        <v>0.788</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J22" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
         <v>6.9</v>
@@ -4336,55 +4403,55 @@
         <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.819</v>
+        <v>0.82</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="T22" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="U22" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y22" t="n">
         <v>3.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4414,7 +4481,7 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
@@ -4438,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>14</v>
@@ -4447,10 +4514,10 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>13</v>
@@ -4459,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF23" t="n">
         <v>28</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>29</v>
@@ -4584,13 +4651,13 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM23" t="n">
         <v>16</v>
@@ -4605,7 +4672,7 @@
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
@@ -4620,19 +4687,19 @@
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>28</v>
@@ -4641,7 +4708,7 @@
         <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>23</v>
@@ -4769,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4817,10 +4884,10 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4948,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
         <v>9</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
@@ -4969,7 +5036,7 @@
         <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4984,16 +5051,16 @@
         <v>28</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -5124,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>6</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5315,19 +5382,19 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
         <v>8</v>
@@ -5339,13 +5406,13 @@
         <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
@@ -5366,10 +5433,10 @@
         <v>5</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5546,7 @@
         <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5512,13 +5579,13 @@
         <v>29</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
@@ -5536,7 +5603,7 @@
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5551,7 +5618,7 @@
         <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.516</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
@@ -5610,55 +5677,55 @@
         <v>21.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O29" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="U29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V29" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
         <v>22.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5673,10 +5740,10 @@
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5688,25 +5755,25 @@
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
       </c>
       <c r="AS29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU29" t="n">
         <v>26</v>
@@ -5715,10 +5782,10 @@
         <v>11</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -5864,19 +5931,19 @@
         <v>26</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
@@ -5885,7 +5952,7 @@
         <v>12</v>
       </c>
       <c r="AS30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
         <v>25</v>
@@ -5897,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.452</v>
+        <v>0.467</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
@@ -5962,31 +6029,31 @@
         <v>37.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
         <v>0.446</v>
       </c>
       <c r="L31" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="O31" t="n">
         <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="R31" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S31" t="n">
         <v>31.2</v>
@@ -5998,55 +6065,55 @@
         <v>23</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W31" t="n">
         <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="AD31" t="n">
         <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM31" t="n">
         <v>14</v>
@@ -6058,16 +6125,16 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6082,22 +6149,22 @@
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-5-2013-14</t>
+          <t>2014-01-05</t>
         </is>
       </c>
     </row>
